--- a/_RESULTS/Error_budget/error_budget_area1_Tr_J.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1_Tr_J.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,214 +408,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52000</v>
+        <v>66000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3498411687835376</v>
+        <v>0.2812576048597371</v>
       </c>
       <c r="E2" t="n">
-        <v>2.495856882681375</v>
+        <v>2.350928961030146</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1521</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.625532315390025</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.559744224116643</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.742592219081432</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.608687176221837</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8354575114434831</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.683477999575225</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9240408811160665</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.743862101397287</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.044926228251287</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.773684824279304</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.105142653476113</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.788720115409844</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.11762423892433</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.794962894506285</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>2.444145834269307</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.122408642828841</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.796806952629495</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
         <v>2.444145834269307</v>
       </c>
     </row>
